--- a/ziyuan/栅格模板日报.xlsx
+++ b/ziyuan/栅格模板日报.xlsx
@@ -851,6 +851,9 @@
       <c r="A70" s="3" t="n">
         <v>43382</v>
       </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="n">

--- a/ziyuan/栅格模板日报.xlsx
+++ b/ziyuan/栅格模板日报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,30 +13,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>测点</t>
-  </si>
-  <si>
-    <t>A=2704|46</t>
-  </si>
-  <si>
-    <t>规则</t>
-  </si>
-  <si>
-    <t>DATABASE|JLJ(A)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,20 +52,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,60 +464,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14.875"/>
-    <col customWidth="1" max="2" min="2" width="16"/>
+    <col width="14.875" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>测点</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A=2704|46</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DATABASE|JLJ(A)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>43333</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" s="3" t="n">
         <v>43334</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" s="3" t="n">
         <v>43335</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="F6" s="6" t="n">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="3" t="n">
         <v>43336</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" s="3" t="n">
         <v>43337</v>
       </c>
@@ -449,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" s="3" t="n">
         <v>43338</v>
       </c>
@@ -457,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" s="3" t="n">
         <v>43339</v>
       </c>
@@ -465,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" s="3" t="n">
         <v>43340</v>
       </c>
@@ -473,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" s="3" t="n">
         <v>43341</v>
       </c>
@@ -481,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" s="3" t="n">
         <v>43342</v>
       </c>
@@ -489,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" s="3" t="n">
         <v>43343</v>
       </c>
@@ -497,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" s="3" t="n">
         <v>43344</v>
       </c>
@@ -505,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" s="3" t="n">
         <v>43345</v>
       </c>
@@ -513,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" s="3" t="n">
         <v>43346</v>
       </c>
@@ -521,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" s="3" t="n">
         <v>43347</v>
       </c>
@@ -529,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" s="3" t="n">
         <v>43348</v>
       </c>
@@ -537,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" s="3" t="n">
         <v>43349</v>
       </c>
@@ -545,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" s="3" t="n">
         <v>43350</v>
       </c>
@@ -553,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" s="3" t="n">
         <v>43351</v>
       </c>
@@ -561,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" s="3" t="n">
         <v>43352</v>
       </c>
@@ -569,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24">
       <c r="A24" s="3" t="n">
         <v>43353</v>
       </c>
@@ -577,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" s="3" t="n">
         <v>43354</v>
       </c>
@@ -585,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" s="3" t="n">
         <v>43355</v>
       </c>
@@ -593,7 +682,7 @@
         <v>25724</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" s="3" t="n">
         <v>43356</v>
       </c>
@@ -601,7 +690,7 @@
         <v>54106</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" s="3" t="n">
         <v>43357</v>
       </c>
@@ -609,7 +698,7 @@
         <v>62415</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" s="3" t="n">
         <v>43358</v>
       </c>
@@ -617,7 +706,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" s="3" t="n">
         <v>43359</v>
       </c>
@@ -625,7 +714,7 @@
         <v>51161</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" s="3" t="n">
         <v>43360</v>
       </c>
@@ -633,7 +722,7 @@
         <v>29300</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" s="3" t="n">
         <v>43361</v>
       </c>
@@ -641,7 +730,7 @@
         <v>34830</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33">
       <c r="A33" s="3" t="n">
         <v>43362</v>
       </c>
@@ -649,7 +738,7 @@
         <v>32030</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34">
       <c r="A34" s="3" t="n">
         <v>43363</v>
       </c>
@@ -657,7 +746,7 @@
         <v>25750</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35">
       <c r="A35" s="3" t="n">
         <v>43364</v>
       </c>
@@ -665,7 +754,7 @@
         <v>43060</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36">
       <c r="A36" s="3" t="n">
         <v>43365</v>
       </c>
@@ -673,7 +762,7 @@
         <v>46670</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37">
       <c r="A37" s="3" t="n">
         <v>43366</v>
       </c>
@@ -681,92 +770,92 @@
         <v>34600</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38">
       <c r="A38" s="3" t="n">
         <v>43358</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39">
       <c r="A39" s="3" t="n">
         <v>43359</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40">
       <c r="A40" s="3" t="n">
         <v>43360</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41">
       <c r="A41" s="3" t="n">
         <v>43361</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42">
       <c r="A42" s="3" t="n">
         <v>43362</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43">
       <c r="A43" s="3" t="n">
         <v>43363</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44">
       <c r="A44" s="3" t="n">
         <v>43364</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45">
       <c r="A45" s="3" t="n">
         <v>43365</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46">
       <c r="A46" s="3" t="n">
         <v>43358</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47">
       <c r="A47" s="3" t="n">
         <v>43359</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48">
       <c r="A48" s="3" t="n">
         <v>43360</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49">
       <c r="A49" s="3" t="n">
         <v>43361</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50">
       <c r="A50" s="3" t="n">
         <v>43362</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51">
       <c r="A51" s="3" t="n">
         <v>43363</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52">
       <c r="A52" s="3" t="n">
         <v>43364</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53">
       <c r="A53" s="3" t="n">
         <v>43365</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54">
       <c r="A54" s="3" t="n">
         <v>43366</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55">
       <c r="A55" s="3" t="n">
         <v>43367</v>
       </c>
@@ -774,7 +863,7 @@
         <v>25320</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56">
       <c r="A56" s="3" t="n">
         <v>43368</v>
       </c>
@@ -782,72 +871,72 @@
         <v>19110</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57">
       <c r="A57" s="3" t="n">
         <v>43369</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58">
       <c r="A58" s="3" t="n">
         <v>43370</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59">
       <c r="A59" s="3" t="n">
         <v>43371</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60">
       <c r="A60" s="3" t="n">
         <v>43372</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61">
       <c r="A61" s="3" t="n">
         <v>43373</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62">
       <c r="A62" s="3" t="n">
         <v>43374</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63">
       <c r="A63" s="3" t="n">
         <v>43375</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64">
       <c r="A64" s="3" t="n">
         <v>43376</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65">
       <c r="A65" s="3" t="n">
         <v>43377</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66">
       <c r="A66" s="3" t="n">
         <v>43378</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67">
       <c r="A67" s="3" t="n">
         <v>43379</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68">
       <c r="A68" s="3" t="n">
         <v>43380</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69">
       <c r="A69" s="3" t="n">
         <v>43381</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70">
       <c r="A70" s="3" t="n">
         <v>43382</v>
       </c>
@@ -855,28 +944,361 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71">
       <c r="A71" s="3" t="n">
         <v>43383</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72">
       <c r="A72" s="3" t="n">
         <v>43384</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73">
       <c r="A73" s="3" t="n">
         <v>43385</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74">
       <c r="A74" s="3" t="n">
         <v>43386</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="5" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-1607656190</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="n">
+        <v>43498</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="n">
+        <v>43499</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="n">
+        <v>43500</v>
+      </c>
+      <c r="B80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="n">
+        <v>43501</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="n">
+        <v>43502</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="n">
+        <v>43503</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="n">
+        <v>43504</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="n">
+        <v>43505</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n">
+        <v>43506</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n">
+        <v>43507</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="n">
+        <v>43508</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="n">
+        <v>43510</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>43511</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n">
+        <v>43512</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="n">
+        <v>43513</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="n">
+        <v>43514</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1584843570</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="n">
+        <v>43515</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="n">
+        <v>43516</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="n">
+        <v>43517</v>
+      </c>
+      <c r="B97" t="n">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="n">
+        <v>43518</v>
+      </c>
+      <c r="B98" t="n">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="n">
+        <v>43519</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5440000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="n">
+        <v>43520</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="n">
+        <v>43521</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3240000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="n">
+        <v>43522</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4640000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="n">
+        <v>43523</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-1607656190</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B106" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B107" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="n">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B109" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B110" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B111" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B112" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B113" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B114" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B115" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B116" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>